--- a/BalanceSheet/VRSK_bal.xlsx
+++ b/BalanceSheet/VRSK_bal.xlsx
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>36400000.0</v>
+        <v>407000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>39300000.0</v>
+        <v>369000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10600000.0</v>
+        <v>322000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>316000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-1800000.0</v>
+        <v>375000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>362800000.0</v>
@@ -3040,19 +3040,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20200000.0</v>
+        <v>388000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>12400000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-1400000.0</v>
+        <v>339000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-100000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-1900000.0</v>
+        <v>346000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>322200000.0</v>
